--- a/medicine/Enfance/Le_Livre_de_poche_jeunesse/Le_Livre_de_poche_jeunesse.xlsx
+++ b/medicine/Enfance/Le_Livre_de_poche_jeunesse/Le_Livre_de_poche_jeunesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Livre de poche jeunesse est une collection française de romans pour la jeunesse au format de poche, créée en 1979[1] par les éditions Hachette Jeunesse. Avec un catalogue de 900 titres[1], elle est l'une des principales collections de poche jeunesse en France. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Livre de poche jeunesse est une collection française de romans pour la jeunesse au format de poche, créée en 1979 par les éditions Hachette Jeunesse. Avec un catalogue de 900 titres, elle est l'une des principales collections de poche jeunesse en France. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La collection paraît après que les éditions Gallimard ont lancé en 1977 leur collection de poche pour enfants, Folio Junior. Elle la concurrence en rééditant des classiques du fonds Hachette[2], et des nouveautés d'auteurs français.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection paraît après que les éditions Gallimard ont lancé en 1977 leur collection de poche pour enfants, Folio Junior. Elle la concurrence en rééditant des classiques du fonds Hachette, et des nouveautés d'auteurs français.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Aspect</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa présentation, très sobre, a longtemps été caractérisée par un nuage séparant le titre de l'illustration de couverture, et du logo rouge du Livre de poche figurant au bas de couverture. Elle a ensuite évolué jusqu'à la présentation actuelle : une illustration de pleine page avec le logo situé en bas et à gauche de la couverture.
 </t>
@@ -573,7 +589,9 @@
           <t>Titres parus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(liste non exhaustive)
 Jean-Côme Noguès, Le Voyage inspiré
